--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -67,10 +67,37 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
-    <t>Cluj-Oradea</t>
+    <t>Cluj-Baia-Mare</t>
   </si>
   <si>
     <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -603,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>13034</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -641,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -655,13 +682,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -669,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -683,10 +710,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -697,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -727,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>17</v>
@@ -741,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>321</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>18</v>
@@ -755,10 +782,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
@@ -769,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -783,10 +810,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>321</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
@@ -813,10 +840,10 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>321</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
@@ -827,10 +854,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
@@ -841,13 +868,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -855,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>321</v>
+        <v>85</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
@@ -869,10 +896,10 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>18</v>
@@ -907,13 +934,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -921,10 +948,10 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -935,10 +962,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>321</v>
+        <v>101</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
@@ -949,10 +976,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>321</v>
+        <v>101</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -979,10 +1006,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>321</v>
+        <v>47</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>18</v>
@@ -990,23 +1017,23 @@
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B76" s="5">
-        <v>9951</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>9951</v>
+        <v>15164</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1014,7 +1041,7 @@
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1022,7 +1049,7 @@
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1030,7 +1057,7 @@
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
       <c r="A84" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1038,7 +1065,7 @@
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
       <c r="A86" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1046,7 +1073,7 @@
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -67,34 +67,34 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
     <t>Cluj-Baia-Mare</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
   </si>
   <si>
     <t>Cluj-Dej</t>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>13034</v>
+        <v>29692</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>356</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -682,13 +682,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -710,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -724,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -754,13 +754,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -771,7 +771,7 @@
         <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>18</v>
@@ -782,10 +782,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -810,13 +810,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -840,13 +840,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -857,7 +857,7 @@
         <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
@@ -868,13 +868,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -882,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
@@ -896,13 +896,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -934,13 +934,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -948,13 +948,13 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -976,10 +976,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>101</v>
+        <v>421</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -1006,10 +1006,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>18</v>
@@ -1020,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="5">
-        <v>2130</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -1028,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>15164</v>
+        <v>32625</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -73,31 +73,34 @@
     <t>Interes Serviciu</t>
   </si>
   <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
     <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -630,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>29692</v>
+        <v>32625</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -682,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -696,13 +699,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -710,13 +713,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -724,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -754,13 +757,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -768,13 +771,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -782,13 +785,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -796,10 +799,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>356</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
@@ -810,13 +813,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -840,13 +843,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -854,10 +857,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
@@ -868,13 +871,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -882,13 +885,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -896,13 +899,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -934,13 +937,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -951,10 +954,10 @@
         <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -962,7 +965,7 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>27</v>
@@ -976,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -1006,34 +1009,34 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>2933</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>32625</v>
+        <v>35386</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1041,7 +1044,7 @@
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1049,7 +1052,7 @@
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
       <c r="A84" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
       <c r="A86" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -40,7 +40,7 @@
     <t>NPC</t>
   </si>
   <si>
-    <t>ianuarie</t>
+    <t>mai</t>
   </si>
   <si>
     <t>Alex Bora</t>
@@ -67,42 +67,39 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
     <t>Cluj-Zalau</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Cluj-Turda</t>
   </si>
   <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
     <t>Km parcursi:</t>
   </si>
   <si>
@@ -121,7 +118,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 13.02.2022</t>
+    <t xml:space="preserve">Semnătură utilizator:			  Data predarii: </t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -255,7 +252,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3476625" y="190500"/>
+          <a:off x="2809875" y="190500"/>
           <a:ext cx="1286150" cy="932611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -560,7 +557,8 @@
   <sheetFormatPr defaultRowHeight="20" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="11" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
@@ -596,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>2022</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -633,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>32625</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -670,25 +668,19 @@
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
-        <v>156</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -699,13 +691,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -713,13 +705,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -727,13 +719,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -757,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -771,13 +763,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -785,13 +777,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -799,13 +791,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -813,10 +805,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
@@ -843,13 +835,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>421</v>
+        <v>257</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -857,10 +849,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
@@ -871,13 +863,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -885,13 +877,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -899,13 +891,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -928,9 +920,15 @@
       <c r="A61" s="4">
         <v>24</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="4">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="4">
@@ -940,10 +938,10 @@
         <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -951,13 +949,13 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -965,13 +963,13 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -979,13 +977,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -1009,34 +1007,34 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="5">
-        <v>2761</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>35386</v>
+        <v>10615</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1044,7 +1042,7 @@
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -1052,7 +1050,7 @@
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1060,7 +1058,7 @@
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
       <c r="A84" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -1068,7 +1066,7 @@
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
       <c r="A86" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1076,7 +1074,7 @@
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$91</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -73,31 +76,28 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
     <t>Cluj-Bontida</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
   </si>
   <si>
     <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -252,7 +252,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2809875" y="190500"/>
+          <a:off x="2876550" y="190500"/>
           <a:ext cx="1286150" cy="932611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -550,38 +550,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -597,7 +600,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,20 +624,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>6640</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+        <v>105352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -648,7 +651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -656,7 +659,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -664,7 +667,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -672,7 +675,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -686,35 +689,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -722,13 +725,13 @@
         <v>421</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -736,7 +739,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>9</v>
       </c>
@@ -744,77 +747,77 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>92</v>
+        <v>421</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>421</v>
+        <v>257</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>15</v>
       </c>
@@ -822,7 +825,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>16</v>
       </c>
@@ -830,40 +833,40 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>25</v>
@@ -872,12 +875,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>26</v>
@@ -886,21 +889,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>421</v>
+        <v>47</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>22</v>
       </c>
@@ -908,7 +911,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1">
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>23</v>
       </c>
@@ -916,21 +919,21 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>25</v>
       </c>
@@ -944,49 +947,49 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1">
+    <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1">
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1">
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1">
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>29</v>
       </c>
@@ -994,7 +997,7 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1">
+    <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>30</v>
       </c>
@@ -1002,83 +1005,101 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1">
+    <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="5">
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="5">
+        <v>107644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B77" s="5">
-        <v>10615</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1">
-      <c r="A81" s="6" t="s">
-        <v>31</v>
-      </c>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1">
+    <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
     </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1">
-      <c r="A84" s="6" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
     </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1">
+    <row r="87" spans="1:4">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1086,14 +1107,18 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A86:D87"/>
+    <mergeCell ref="A88:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -43,7 +43,7 @@
     <t>NPC</t>
   </si>
   <si>
-    <t>mai</t>
+    <t>august</t>
   </si>
   <si>
     <t>Alex Bora</t>
@@ -76,12 +76,18 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
     <t>Cluj-Turda</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
     <t>Cluj-Satu-Mare</t>
   </si>
   <si>
@@ -91,13 +97,13 @@
     <t>Cluj-Bistrita</t>
   </si>
   <si>
-    <t>Cluj-Dej</t>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
   </si>
   <si>
     <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -597,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1999</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -634,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>105352</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -663,30 +669,42 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4">
+        <v>101</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -694,13 +712,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -708,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>20</v>
@@ -721,15 +739,9 @@
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="4">
-        <v>421</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
@@ -743,9 +755,15 @@
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="4">
+        <v>421</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4">
@@ -755,7 +773,7 @@
         <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>20</v>
@@ -766,10 +784,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>421</v>
+        <v>257</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>20</v>
@@ -794,10 +812,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>20</v>
@@ -807,15 +825,9 @@
       <c r="A41" s="4">
         <v>14</v>
       </c>
-      <c r="B41" s="4">
-        <v>92</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4">
@@ -829,9 +841,15 @@
       <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="4">
+        <v>257</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4">
@@ -852,10 +870,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>20</v>
@@ -866,13 +884,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -880,10 +898,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>20</v>
@@ -893,15 +911,9 @@
       <c r="A55" s="4">
         <v>21</v>
       </c>
-      <c r="B55" s="4">
-        <v>47</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4">
@@ -915,22 +927,28 @@
       <c r="A59" s="4">
         <v>23</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="4">
+        <v>30</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -938,13 +956,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -952,13 +970,13 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -966,10 +984,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
@@ -979,15 +997,9 @@
       <c r="A69" s="4">
         <v>28</v>
       </c>
-      <c r="B69" s="4">
-        <v>101</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4">
@@ -1001,9 +1013,15 @@
       <c r="A73" s="4">
         <v>30</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="4">
+        <v>421</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4">
@@ -1021,23 +1039,23 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>2292</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>107644</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1051,7 +1069,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1059,7 +1077,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1067,7 +1085,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1075,7 +1093,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1089,7 +1107,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -43,7 +43,7 @@
     <t>NPC</t>
   </si>
   <si>
-    <t>august</t>
+    <t>ianuarie</t>
   </si>
   <si>
     <t>Alex Bora</t>
@@ -76,36 +76,36 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
     <t>Cluj-Dej</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
     <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
   </si>
   <si>
     <t>Cluj-Bistrita</t>
   </si>
   <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
     <t>Cluj-Baia-Mare</t>
   </si>
   <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
     <t>Km parcursi:</t>
   </si>
   <si>
@@ -124,7 +124,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t xml:space="preserve">Semnătură utilizator:			  Data predarii: </t>
+    <t>Semnătură utilizator:			  Data predarii: 16.02.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>2004</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -669,28 +669,22 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="4">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -698,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
@@ -712,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
@@ -726,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>20</v>
@@ -739,9 +733,15 @@
       <c r="A27" s="4">
         <v>7</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="4">
+        <v>101</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
@@ -755,28 +755,22 @@
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>421</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -784,13 +778,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -798,13 +792,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -812,10 +806,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>85</v>
+        <v>421</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>20</v>
@@ -825,9 +819,15 @@
       <c r="A41" s="4">
         <v>14</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="4">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4">
@@ -841,28 +841,22 @@
       <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B45" s="4">
-        <v>257</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -870,13 +864,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -884,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -898,22 +892,28 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>21</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="4">
+        <v>30</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4">
@@ -927,39 +927,27 @@
       <c r="A59" s="4">
         <v>23</v>
       </c>
-      <c r="B59" s="4">
-        <v>30</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>24</v>
       </c>
-      <c r="B61" s="4">
-        <v>30</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>20</v>
@@ -984,10 +972,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>20</v>
@@ -997,9 +985,15 @@
       <c r="A69" s="4">
         <v>28</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="B69" s="4">
+        <v>257</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4">
@@ -1013,28 +1007,22 @@
       <c r="A73" s="4">
         <v>30</v>
       </c>
-      <c r="B73" s="4">
-        <v>421</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1042,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>3164</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1050,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>3171</v>
+        <v>6933</v>
       </c>
     </row>
     <row r="80" spans="1:4">

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ianuarie 2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ianuarie 2022'!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,42 +70,39 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
     <t>Acasa-Birou</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Interes Serviciu</t>
+    <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
     <t>Cluj-Satu-Mare</t>
   </si>
   <si>
-    <t>Cluj-Apahida</t>
+    <t>Cluj-Zalau</t>
   </si>
   <si>
     <t>Cluj-Dej</t>
   </si>
   <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
   </si>
   <si>
     <t>Cluj-Bistrita</t>
   </si>
   <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
     <t>Km parcursi:</t>
   </si>
   <si>
@@ -124,7 +121,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 16.02.2022</t>
+    <t>Semnătură utilizator:			  Data predarii: 18.02.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -212,7 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -640,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>3701</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -678,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -692,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -706,13 +705,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -720,13 +719,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -734,13 +733,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -764,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
@@ -778,10 +777,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>18</v>
@@ -792,13 +791,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>421</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -809,10 +808,10 @@
         <v>421</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -820,13 +819,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -850,10 +849,10 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>20</v>
@@ -867,10 +866,10 @@
         <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -878,13 +877,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -892,10 +891,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
@@ -906,10 +905,10 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>18</v>
@@ -944,13 +943,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -958,10 +957,10 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -972,13 +971,13 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -986,13 +985,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1016,10 +1015,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
@@ -1027,23 +1026,23 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="5">
-        <v>3232</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>6933</v>
+        <v>8490</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1057,7 +1056,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1065,7 +1064,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1073,7 +1072,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1081,7 +1080,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1095,7 +1094,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ianuarie 2022" sheetId="1" r:id="rId1"/>
+    <sheet name="mai 1975" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ianuarie 2022'!$A$1:$F$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'mai 1975'!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -43,7 +43,7 @@
     <t>NPC</t>
   </si>
   <si>
-    <t>ianuarie</t>
+    <t>mai</t>
   </si>
   <si>
     <t>Alex Bora</t>
@@ -70,39 +70,39 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
     <t>Cluj-Apahida</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
     <t>Km parcursi:</t>
   </si>
   <si>
@@ -121,7 +121,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 18.02.2022</t>
+    <t xml:space="preserve">Semnătură utilizator:			  Data predarii: </t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>2022</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -639,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>4590</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -676,36 +676,24 @@
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
-        <v>85</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="4">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -719,13 +707,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -733,65 +721,65 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="4">
+        <v>257</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="4">
+        <v>101</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>10</v>
       </c>
-      <c r="B33" s="4">
-        <v>421</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>11</v>
       </c>
-      <c r="B35" s="4">
-        <v>421</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>23</v>
@@ -805,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>421</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>22</v>
@@ -819,10 +807,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>18</v>
@@ -832,55 +820,55 @@
       <c r="A43" s="4">
         <v>15</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="4">
+        <v>356</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="4">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>17</v>
       </c>
-      <c r="B47" s="4">
-        <v>30</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>18</v>
       </c>
-      <c r="B49" s="4">
-        <v>30</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>18</v>
@@ -891,10 +879,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>121</v>
+        <v>356</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
@@ -905,30 +893,42 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>22</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="4">
+        <v>101</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>23</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="4">
+        <v>30</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4">
@@ -942,28 +942,22 @@
       <c r="A63" s="4">
         <v>25</v>
       </c>
-      <c r="B63" s="4">
-        <v>421</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -971,10 +965,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
@@ -985,7 +979,7 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>17</v>
@@ -998,38 +992,44 @@
       <c r="A71" s="4">
         <v>29</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="4">
+        <v>356</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>30</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="4">
+        <v>30</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>31</v>
       </c>
-      <c r="B75" s="4">
-        <v>30</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B76" s="5">
-        <v>3900</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1037,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>8490</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="80" spans="1:4">

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -70,37 +70,37 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
+    <t>Cluj-Bontida</t>
   </si>
   <si>
     <t>Cluj-Dej</t>
   </si>
   <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
     <t>Cluj-Cluj</t>
   </si>
   <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
     <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -693,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -721,13 +721,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -735,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>21</v>
@@ -749,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>22</v>
@@ -779,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>23</v>
@@ -793,13 +793,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -807,13 +807,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -821,13 +821,13 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -838,7 +838,7 @@
         <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
@@ -865,10 +865,10 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>18</v>
@@ -879,10 +879,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>18</v>
@@ -893,13 +893,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -907,10 +907,10 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>18</v>
@@ -951,13 +951,13 @@
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -965,10 +965,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
@@ -979,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>152</v>
+        <v>356</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -993,10 +993,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>18</v>
@@ -1007,13 +1007,13 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1029,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="5">
-        <v>2909</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1037,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="B77" s="5">
-        <v>2916</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1123,6 +1123,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
     <ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:XFD1048576" listDataValidation="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="mai 1975" sheetId="1" r:id="rId1"/>
+    <sheet name="ianuarie 2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'mai 1975'!$A$1:$F$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ianuarie 2022'!$A$1:$F$91</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -43,7 +43,7 @@
     <t>NPC</t>
   </si>
   <si>
-    <t>mai</t>
+    <t>ianuarie</t>
   </si>
   <si>
     <t>Alex Bora</t>
@@ -70,7 +70,7 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
-    <t>Cluj-Turda</t>
+    <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
     <t>Interes Serviciu</t>
@@ -82,10 +82,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
   </si>
   <si>
     <t>Cluj-Dej</t>
@@ -94,13 +94,7 @@
     <t>Cluj-Baia-Mare</t>
   </si>
   <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
+    <t>Cluj-Bistrita</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -602,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1975</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -639,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>89874</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -676,24 +670,36 @@
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4">
+        <v>152</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -707,13 +713,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -721,71 +727,71 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="4">
-        <v>152</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>92</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>10</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="B33" s="4">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>11</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="4">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -793,13 +799,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -820,58 +826,58 @@
       <c r="A43" s="4">
         <v>15</v>
       </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B45" s="4">
-        <v>92</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>17</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="4">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>18</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="4">
+        <v>101</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -879,13 +885,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -906,29 +912,17 @@
       <c r="A57" s="4">
         <v>22</v>
       </c>
-      <c r="B57" s="4">
-        <v>356</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>23</v>
       </c>
-      <c r="B59" s="4">
-        <v>30</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4">
@@ -942,22 +936,28 @@
       <c r="A63" s="4">
         <v>25</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="4">
+        <v>30</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>26</v>
       </c>
       <c r="B65" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -965,10 +965,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
@@ -979,10 +979,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -992,57 +992,51 @@
       <c r="A71" s="4">
         <v>29</v>
       </c>
-      <c r="B71" s="4">
-        <v>121</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>30</v>
       </c>
-      <c r="B73" s="4">
-        <v>421</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>31</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="4">
+        <v>356</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B76" s="5">
-        <v>3028</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B77" s="5">
-        <v>3035</v>
+        <v>91920</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1056,7 +1050,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1064,7 +1058,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1072,7 +1066,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1094,7 +1088,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -82,18 +82,27 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
     <t>Cluj-Zalau</t>
   </si>
   <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
     <t>Cluj-Bistrita</t>
   </si>
   <si>
@@ -115,7 +124,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t xml:space="preserve">Semnătură utilizator:			  Data predarii: </t>
+    <t>Semnătură utilizator:			  Data predarii: 20.02.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -633,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>89874</v>
+        <v>91920</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -654,30 +663,42 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4">
+        <v>152</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -685,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -699,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -713,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>21</v>
@@ -727,30 +748,42 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="4">
+        <v>356</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="4">
+        <v>421</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4">
@@ -771,13 +804,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -785,13 +818,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -799,13 +832,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -826,30 +859,42 @@
       <c r="A43" s="4">
         <v>15</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="4">
+        <v>421</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="4">
+        <v>30</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -857,10 +902,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
@@ -871,13 +916,13 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -899,51 +944,69 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>22</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="4">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>23</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="4">
+        <v>156</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>24</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="4">
+        <v>121</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -965,13 +1028,13 @@
         <v>27</v>
       </c>
       <c r="B67" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -979,40 +1042,52 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>29</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="4">
+        <v>30</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>30</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="B73" s="4">
+        <v>257</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>18</v>
@@ -1020,23 +1095,23 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>2046</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>91920</v>
+        <v>95582</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -1050,7 +1125,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -1058,7 +1133,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -1066,7 +1141,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -1074,7 +1149,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -1088,7 +1163,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -70,42 +70,42 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
     <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
     <t>Cluj-Apahida</t>
   </si>
   <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
     <t>Cluj-Bistrita</t>
   </si>
   <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
     <t>Km parcursi:</t>
   </si>
   <si>
@@ -124,7 +124,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 20.02.2022</t>
+    <t>Semnătură utilizator:			  Data predarii: 21.02.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -642,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>91920</v>
+        <v>95582</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -695,10 +695,10 @@
         <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -706,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>152</v>
+        <v>421</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -720,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
@@ -734,13 +734,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -751,10 +751,10 @@
         <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -762,13 +762,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -776,13 +776,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>421</v>
+        <v>152</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -793,10 +793,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -804,13 +804,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -818,13 +818,13 @@
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -835,10 +835,10 @@
         <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -846,10 +846,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>20</v>
@@ -860,10 +860,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>18</v>
@@ -877,10 +877,10 @@
         <v>30</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -888,10 +888,10 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
@@ -902,13 +902,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -916,10 +916,10 @@
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>18</v>
@@ -930,10 +930,10 @@
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>20</v>
@@ -944,7 +944,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>19</v>
@@ -958,10 +958,10 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>20</v>
@@ -972,10 +972,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>18</v>
@@ -986,10 +986,10 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
@@ -1003,10 +1003,10 @@
         <v>47</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1017,10 +1017,10 @@
         <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1031,10 +1031,10 @@
         <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1042,10 +1042,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
@@ -1056,10 +1056,10 @@
         <v>29</v>
       </c>
       <c r="B71" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>20</v>
@@ -1070,13 +1070,13 @@
         <v>30</v>
       </c>
       <c r="B73" s="4">
-        <v>257</v>
+        <v>421</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1084,7 +1084,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>17</v>
@@ -1098,7 +1098,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="5">
-        <v>3662</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1106,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="B77" s="5">
-        <v>95582</v>
+        <v>99272</v>
       </c>
     </row>
     <row r="80" spans="1:4">

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,42 +70,36 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
     <t>Acasa-Birou</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Interes Serviciu</t>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
   </si>
   <si>
     <t>Cluj-Satu-Mare</t>
   </si>
   <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
     <t>Km parcursi:</t>
   </si>
   <si>
@@ -124,7 +118,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 21.02.2022</t>
+    <t>Semnătură utilizator:			  Data predarii: 24.02.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -210,7 +204,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,34 +559,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -600,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,7 +598,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -616,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -624,7 +614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,20 +622,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>95582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -659,40 +649,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="4">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="4">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -701,250 +679,226 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="4">
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="4">
         <v>6</v>
       </c>
       <c r="B25" s="4">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="4">
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="4">
-        <v>121</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="4">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>152</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="4">
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="4">
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>152</v>
+        <v>356</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="4">
         <v>12</v>
       </c>
       <c r="B37" s="4">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="4">
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="4">
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="20" customHeight="1">
       <c r="A43" s="4">
         <v>15</v>
       </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
       <c r="A45" s="4">
         <v>16</v>
       </c>
-      <c r="B45" s="4">
-        <v>30</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
       <c r="A47" s="4">
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" ht="20" customHeight="1">
       <c r="A49" s="4">
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
       <c r="A51" s="4">
         <v>19</v>
       </c>
       <c r="B51" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="4">
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>421</v>
+        <v>85</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
       <c r="A55" s="4">
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>19</v>
@@ -953,63 +907,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" ht="20" customHeight="1">
       <c r="A57" s="4">
         <v>22</v>
       </c>
-      <c r="B57" s="4">
-        <v>92</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
       <c r="A59" s="4">
         <v>23</v>
       </c>
-      <c r="B59" s="4">
-        <v>30</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
       <c r="A61" s="4">
         <v>24</v>
       </c>
-      <c r="B61" s="4">
-        <v>30</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="4">
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
       <c r="A65" s="4">
         <v>26</v>
       </c>
@@ -1017,13 +953,13 @@
         <v>30</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
       <c r="A67" s="4">
         <v>27</v>
       </c>
@@ -1031,163 +967,103 @@
         <v>30</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
       <c r="A69" s="4">
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
       <c r="A71" s="4">
         <v>29</v>
       </c>
-      <c r="B71" s="4">
-        <v>101</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
       <c r="A73" s="4">
         <v>30</v>
       </c>
-      <c r="B73" s="4">
-        <v>421</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="A75" s="4">
         <v>31</v>
       </c>
       <c r="B75" s="4">
+        <v>156</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="5">
+        <v>17712</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="20" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="20" customHeight="1">
+      <c r="A82" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="5">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="5">
-        <v>99272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="6" t="s">
+    </row>
+    <row r="83" spans="1:1" ht="20" customHeight="1">
+      <c r="A83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6" t="s">
+    </row>
+    <row r="85" spans="1:1" ht="20" customHeight="1">
+      <c r="A85" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6" t="s">
+    </row>
+    <row r="87" spans="1:1" ht="20" customHeight="1">
+      <c r="A87" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="6" t="s">
+    </row>
+    <row r="89" spans="1:1" ht="20" customHeight="1">
+      <c r="A89" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A86:D87"/>
-    <mergeCell ref="A88:D89"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,28 +70,25 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
-    <t>Cluj-Bontida</t>
+    <t>Cluj-Turda</t>
   </si>
   <si>
     <t>Interes Serviciu</t>
   </si>
   <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
     <t>Cluj-Cluj</t>
   </si>
   <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
+    <t>Cluj-Zalau</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -112,7 +109,7 @@
     <t>Total km Personal Ratio		 0,0%</t>
   </si>
   <si>
-    <t>Semnătură utilizator:			  Data predarii: 26.02.2022</t>
+    <t>Semnătură utilizator:			  Data predarii: 27.02.2022</t>
   </si>
   <si>
     <t>……………………………………………………</t>
@@ -626,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>143366</v>
+        <v>147485</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -664,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -678,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -712,10 +709,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -742,13 +739,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -759,10 +756,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -790,13 +787,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -820,13 +817,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -837,10 +834,10 @@
         <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -868,13 +865,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -906,13 +903,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -940,10 +937,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -970,59 +967,59 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="5">
-        <v>1104</v>
+        <v>740</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" s="5">
-        <v>144470</v>
+        <v>148225</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="20" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
-    <t>Cluj-Turda</t>
+    <t>Cluj-Bontida</t>
   </si>
   <si>
     <t>Interes Serviciu</t>
@@ -82,13 +82,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
     <t>Cluj-Apahida</t>
   </si>
   <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -623,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>147485</v>
+        <v>148225</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -661,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -709,13 +718,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -739,13 +748,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -753,13 +762,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -787,13 +796,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -817,13 +826,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -831,13 +840,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -865,10 +874,10 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>18</v>
@@ -903,13 +912,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -937,10 +946,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -978,48 +987,48 @@
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B76" s="5">
-        <v>740</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B77" s="5">
-        <v>148225</v>
+        <v>150012</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="20" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/foaie.xlsx
+++ b/foaie.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,31 +70,25 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
-    <t>Cluj-Bontida</t>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Interes Serviciu</t>
   </si>
   <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
     <t>Cluj-Cluj</t>
   </si>
   <si>
     <t>Cluj-Apahida</t>
   </si>
   <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
+    <t>Cluj-Turda</t>
   </si>
   <si>
     <t>Cluj-Satu-Mare</t>
@@ -632,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>148225</v>
+        <v>150012</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -670,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -687,10 +681,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -718,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>19</v>
@@ -748,10 +742,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
@@ -765,10 +759,10 @@
         <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -796,13 +790,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -829,10 +823,10 @@
         <v>30</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -840,10 +834,10 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
@@ -874,13 +868,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -912,10 +906,10 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>18</v>
@@ -946,10 +940,10 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>18</v>
@@ -976,10 +970,10 @@
         <v>31</v>
       </c>
       <c r="B75" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
@@ -987,48 +981,48 @@
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" s="5">
-        <v>1787</v>
+        <v>985</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" s="5">
-        <v>150012</v>
+        <v>150997</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="20" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="20" customHeight="1">
       <c r="A85" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
